--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Git\SelectWorm\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="27975" windowHeight="12510"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,14 +176,18 @@
   </si>
   <si>
     <t>result_R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,9 +226,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -230,6 +242,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -276,7 +296,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,9 +328,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,6 +363,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -517,39 +539,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -557,7 +579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -565,7 +587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -573,7 +595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -581,7 +603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -589,30 +611,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -620,7 +648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -628,14 +656,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -643,7 +671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -651,18 +679,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -670,7 +698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -678,7 +706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -686,7 +714,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4</v>
       </c>
@@ -694,7 +722,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5</v>
       </c>
@@ -702,7 +730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>6</v>
       </c>
@@ -710,7 +738,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>7</v>
       </c>
@@ -718,7 +746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>8</v>
       </c>
@@ -726,7 +754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>9</v>
       </c>
@@ -734,18 +762,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -753,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -761,7 +789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -769,7 +797,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -777,7 +805,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5</v>
       </c>
@@ -785,7 +813,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>6</v>
       </c>
@@ -793,7 +821,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>7</v>
       </c>
@@ -801,7 +829,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>8</v>
       </c>
@@ -809,38 +837,38 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>38</v>
       </c>
@@ -861,12 +889,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -874,12 +902,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +180,10 @@
   </si>
   <si>
     <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Font</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G42"/>
+  <dimension ref="A2:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -634,254 +638,262 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>9</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>8</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>34</v>
-      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A38:G38"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A29:G29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Git\SelectWorm\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="27975" windowHeight="12510"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,14 +179,22 @@
   </si>
   <si>
     <t>Font</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button_Background</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,9 +233,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -300,7 +306,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,10 +338,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,7 +372,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -543,39 +547,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="A16" sqref="A16:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="20.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
@@ -583,7 +587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>2</v>
       </c>
@@ -591,7 +595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
@@ -599,301 +603,315 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="15" spans="1:7">
+      <c r="A15">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="18" spans="1:7">
+      <c r="A18">
         <v>2</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="21" spans="1:7">
+      <c r="A21">
         <v>2</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="22" spans="1:7">
+      <c r="A22">
         <v>3</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="23" spans="1:7">
+      <c r="A23">
         <v>4</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="24" spans="1:7">
+      <c r="A24">
         <v>5</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="25" spans="1:7">
+      <c r="A25">
         <v>6</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="26" spans="1:7">
+      <c r="A26">
         <v>7</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="27" spans="1:7">
+      <c r="A27">
         <v>8</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="28" spans="1:7">
+      <c r="A28">
         <v>9</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
         <v>1</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="32" spans="1:7">
+      <c r="A32">
         <v>2</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="33" spans="1:7">
+      <c r="A33">
         <v>3</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="34" spans="1:7">
+      <c r="A34">
         <v>4</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="35" spans="1:7">
+      <c r="A35">
         <v>5</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="36" spans="1:7">
+      <c r="A36">
         <v>6</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="37" spans="1:7">
+      <c r="A37">
         <v>7</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="38" spans="1:7">
+      <c r="A38">
         <v>8</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+    <row r="39" spans="1:7">
+      <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="B40" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
+    <row r="41" spans="1:7">
+      <c r="B41" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
+    <row r="42" spans="1:7">
+      <c r="B42" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
+    <row r="43" spans="1:7">
+      <c r="B43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
+    <row r="44" spans="1:7">
+      <c r="B44" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A39:G39"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A30:G30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -901,12 +919,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -914,12 +932,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Git\SelectWorm\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="27975" windowHeight="12510"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,14 +192,18 @@
   </si>
   <si>
     <t>Button_Background</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ButtonClickedAnimation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,7 +315,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -338,9 +347,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,6 +382,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -547,21 +558,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="20.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -572,14 +583,14 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -587,7 +598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -595,7 +606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -603,7 +614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -611,7 +622,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -622,7 +633,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -633,7 +644,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -644,7 +655,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -655,7 +666,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -663,14 +674,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -678,7 +689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -686,14 +697,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -701,7 +712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -709,7 +720,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -720,7 +731,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -728,7 +739,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -736,7 +747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -744,7 +755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -752,7 +763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5</v>
       </c>
@@ -760,7 +771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>6</v>
       </c>
@@ -768,7 +779,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>7</v>
       </c>
@@ -776,7 +787,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>8</v>
       </c>
@@ -784,7 +795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>9</v>
       </c>
@@ -792,7 +803,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>25</v>
       </c>
@@ -803,15 +814,18 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="C31" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
@@ -819,7 +833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -827,7 +841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -835,7 +849,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>5</v>
       </c>
@@ -843,7 +857,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>6</v>
       </c>
@@ -851,7 +865,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>7</v>
       </c>
@@ -859,7 +873,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>8</v>
       </c>
@@ -867,7 +881,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
@@ -878,27 +892,27 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>38</v>
       </c>
@@ -915,16 +929,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -932,12 +947,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Git\SelectWorm\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="27975" windowHeight="12510"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,14 +191,18 @@
   </si>
   <si>
     <t>ButtonClickedAnimation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,9 +241,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -315,7 +317,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -347,10 +349,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -382,7 +383,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -558,47 +558,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="23.75" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>2</v>
       </c>
@@ -606,7 +609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
@@ -614,15 +617,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>5</v>
       </c>
@@ -633,7 +639,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>6</v>
       </c>
@@ -644,7 +650,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>7</v>
       </c>
@@ -655,7 +661,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>8</v>
       </c>
@@ -666,7 +672,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>9</v>
       </c>
@@ -674,14 +680,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>1</v>
       </c>
@@ -689,7 +695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>2</v>
       </c>
@@ -697,14 +703,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>1</v>
       </c>
@@ -712,7 +718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>2</v>
       </c>
@@ -720,18 +726,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>1</v>
       </c>
@@ -739,7 +745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>2</v>
       </c>
@@ -747,7 +753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>3</v>
       </c>
@@ -755,7 +761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>4</v>
       </c>
@@ -763,7 +769,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>5</v>
       </c>
@@ -771,7 +777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>6</v>
       </c>
@@ -779,7 +785,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>7</v>
       </c>
@@ -787,7 +793,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>8</v>
       </c>
@@ -795,7 +801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>9</v>
       </c>
@@ -803,18 +809,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>1</v>
       </c>
@@ -825,7 +831,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>2</v>
       </c>
@@ -833,7 +839,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>3</v>
       </c>
@@ -841,7 +847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>4</v>
       </c>
@@ -849,7 +855,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>5</v>
       </c>
@@ -857,7 +863,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>6</v>
       </c>
@@ -865,7 +871,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>7</v>
       </c>
@@ -873,7 +879,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>8</v>
       </c>
@@ -881,38 +887,38 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:7">
+      <c r="A39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7">
       <c r="B40" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="B41" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="B42" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="B43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="B44" t="s">
         <v>38</v>
       </c>
@@ -934,12 +940,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -947,12 +953,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,18 @@
   </si>
   <si>
     <t>ButtonClickedAnimation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp,mp o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o, light</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -241,9 +253,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -562,7 +577,7 @@
   <dimension ref="A2:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -573,22 +588,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
@@ -597,8 +612,8 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>44</v>
+      <c r="C4" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -608,6 +623,9 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
@@ -616,6 +634,9 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
+      <c r="C6" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
@@ -681,11 +702,11 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
@@ -704,11 +725,11 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
@@ -717,6 +738,9 @@
       <c r="B17" t="s">
         <v>13</v>
       </c>
+      <c r="C17" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
@@ -727,15 +751,15 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
@@ -810,15 +834,15 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
@@ -888,15 +912,15 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:7">
       <c r="B40" t="s">

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -253,9 +253,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -577,7 +580,7 @@
   <dimension ref="A2:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -588,22 +591,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
@@ -612,7 +615,7 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -702,11 +705,11 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
@@ -725,11 +728,11 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
@@ -751,15 +754,15 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
@@ -834,15 +837,15 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
@@ -912,15 +915,15 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
     </row>
     <row r="40" spans="1:7">
       <c r="B40" t="s">

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,20 +190,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp,mp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ButtonClickedAnimation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp,mp o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o, light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>o</t>
@@ -577,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G44"/>
+  <dimension ref="A2:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -588,9 +591,10 @@
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="23.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -598,17 +602,18 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="D3" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -616,32 +621,35 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>39</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>4</v>
       </c>
@@ -649,10 +657,11 @@
         <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>43</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>5</v>
       </c>
@@ -662,8 +671,9 @@
       <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>6</v>
       </c>
@@ -673,8 +683,9 @@
       <c r="C9" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>7</v>
       </c>
@@ -684,8 +695,9 @@
       <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>8</v>
       </c>
@@ -695,46 +707,55 @@
       <c r="C11" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="C12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>1</v>
       </c>
@@ -742,18 +763,21 @@
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>44</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
@@ -761,82 +785,92 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7">
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>3</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>4</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>5</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>6</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>7</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>9</v>
       </c>
       <c r="B28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="6" t="s">
         <v>25</v>
       </c>
@@ -844,77 +878,83 @@
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7">
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>2</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>3</v>
       </c>
       <c r="B33" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>4</v>
       </c>
       <c r="B34" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>5</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>6</v>
       </c>
       <c r="B36" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>7</v>
       </c>
       <c r="B37" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>8</v>
       </c>
       <c r="B38" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="6" t="s">
         <v>33</v>
       </c>
@@ -922,43 +962,46 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="1:7">
+    </row>
+    <row r="40" spans="1:5">
       <c r="B40" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:5">
       <c r="B41" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:5">
       <c r="B42" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:5">
       <c r="B43" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:5">
       <c r="B44" t="s">
         <v>38</v>
       </c>
+      <c r="D44" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A30:E30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,14 +202,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hp,mp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ButtonClickedAnimation</t>
   </si>
   <si>
     <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decoration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Popup_Decoration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -256,9 +264,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -580,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E44"/>
+  <dimension ref="A2:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -595,20 +606,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="5" t="s">
         <v>45</v>
       </c>
@@ -632,10 +643,10 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="C5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
@@ -644,10 +655,10 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="C6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
@@ -717,291 +728,317 @@
         <v>40</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="6" t="s">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="5"/>
+      <c r="A21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
         <v>9</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="6" t="s">
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32">
-        <v>2</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="5"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
         <v>8</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="6" t="s">
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="B40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="B41" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="5"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5">
       <c r="B42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:5">
       <c r="B43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:5">
       <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="B46" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="5"/>
+      <c r="D46" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A41:E41"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A32:E32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +218,10 @@
   </si>
   <si>
     <t>Popup_Decoration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -264,9 +268,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -593,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -606,20 +613,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="5" t="s">
         <v>45</v>
       </c>
@@ -739,13 +746,16 @@
       <c r="B13" t="s">
         <v>49</v>
       </c>
+      <c r="C13" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:5">
@@ -785,11 +795,11 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:5">
@@ -811,17 +821,20 @@
       <c r="B20" t="s">
         <v>14</v>
       </c>
+      <c r="C20" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
@@ -908,13 +921,13 @@
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
@@ -992,39 +1005,54 @@
       <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5">
+      <c r="A42">
+        <v>1</v>
+      </c>
       <c r="B42" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:5">
+      <c r="A43">
+        <v>2</v>
+      </c>
       <c r="B43" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:5">
+      <c r="A44">
+        <v>3</v>
+      </c>
       <c r="B44" t="s">
         <v>35</v>
       </c>
       <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:5">
+      <c r="A45">
+        <v>4</v>
+      </c>
       <c r="B45" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:5">
+      <c r="A46">
+        <v>5</v>
+      </c>
       <c r="B46" t="s">
         <v>38</v>
       </c>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,6 +222,10 @@
   </si>
   <si>
     <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adventurer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -268,9 +272,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -598,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E46"/>
+  <dimension ref="A2:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -613,20 +620,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="5" t="s">
         <v>45</v>
       </c>
@@ -751,11 +758,11 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:5">
@@ -795,11 +802,11 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:5">
@@ -828,13 +835,13 @@
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
@@ -859,16 +866,17 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="5"/>
     </row>
@@ -877,7 +885,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" s="5"/>
     </row>
@@ -886,7 +894,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="5"/>
     </row>
@@ -895,7 +903,7 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" s="5"/>
     </row>
@@ -904,7 +912,7 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29" s="5"/>
     </row>
@@ -913,160 +921,169 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:5">
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="8" t="s">
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
         <v>8</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="8" t="s">
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" s="5"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
         <v>5</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="5"/>
+      <c r="D47" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A42:E42"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,6 +226,10 @@
   </si>
   <si>
     <t>Adventurer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blacksmith</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -272,9 +276,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -605,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E47"/>
+  <dimension ref="A2:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -620,20 +627,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="5" t="s">
         <v>45</v>
       </c>
@@ -758,11 +765,11 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:5">
@@ -802,11 +809,11 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:5">
@@ -835,13 +842,13 @@
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
@@ -857,35 +864,36 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" s="5"/>
     </row>
@@ -894,7 +902,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" s="5"/>
     </row>
@@ -903,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" s="5"/>
     </row>
@@ -912,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" s="5"/>
     </row>
@@ -921,7 +929,7 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30" s="5"/>
     </row>
@@ -930,160 +938,169 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:5">
       <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="9" t="s">
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
         <v>8</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="9" t="s">
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="5"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
         <v>5</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="5"/>
+      <c r="D48" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A43:E43"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A34:E34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,34 +202,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decoration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Popup_Decoration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adventurer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blacksmith</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ButtonClickedAnimation</t>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Decoration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Popup_Decoration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adventurer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blacksmith</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -276,9 +281,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -612,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E48"/>
+  <dimension ref="A2:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:E43"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -627,20 +635,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="5" t="s">
         <v>45</v>
       </c>
@@ -665,7 +673,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="5"/>
     </row>
@@ -677,7 +685,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -749,7 +757,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="5"/>
     </row>
@@ -758,18 +766,18 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:5">
@@ -780,7 +788,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="5"/>
     </row>
@@ -792,7 +800,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="5"/>
     </row>
@@ -801,19 +809,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:5">
@@ -836,19 +844,19 @@
         <v>14</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
@@ -864,7 +872,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -883,26 +891,27 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="5"/>
     </row>
@@ -911,7 +920,7 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" s="5"/>
     </row>
@@ -920,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" s="5"/>
     </row>
@@ -929,7 +938,7 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30" s="5"/>
     </row>
@@ -938,7 +947,7 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" s="5"/>
     </row>
@@ -947,160 +956,169 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:5">
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="10" t="s">
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
         <v>8</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="10" t="s">
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="5"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
         <v>5</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>38</v>
       </c>
-      <c r="D48" s="5"/>
+      <c r="D49" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A44:E44"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A35:E35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,26 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>question</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select_R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select_L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result_L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result_R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,7 +214,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ButtonClickedAnimation</t>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -281,9 +265,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -622,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -635,22 +622,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -661,7 +648,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D4" s="5"/>
     </row>
@@ -673,7 +660,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D5" s="5"/>
     </row>
@@ -685,7 +672,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -694,10 +681,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -709,7 +696,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -721,7 +708,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -733,7 +720,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D10" s="5"/>
     </row>
@@ -745,7 +732,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D11" s="5"/>
     </row>
@@ -754,10 +741,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D12" s="5"/>
     </row>
@@ -766,18 +753,18 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:5">
@@ -788,7 +775,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D15" s="5"/>
     </row>
@@ -800,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D16" s="5"/>
     </row>
@@ -809,19 +796,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:5">
@@ -832,7 +819,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D19" s="5"/>
     </row>
@@ -844,19 +831,19 @@
         <v>14</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
@@ -865,6 +852,9 @@
       <c r="B22" t="s">
         <v>16</v>
       </c>
+      <c r="C22" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:5">
@@ -872,7 +862,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -891,9 +881,11 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="10"/>
+        <v>48</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:5">
@@ -901,7 +893,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -973,13 +965,13 @@
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
@@ -989,9 +981,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="5"/>
-      <c r="D36" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
@@ -1057,57 +1047,40 @@
       <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>50</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46">
-        <v>2</v>
-      </c>
-      <c r="B46" t="s">
-        <v>36</v>
-      </c>
+      <c r="C46" s="11"/>
       <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47">
-        <v>3</v>
-      </c>
-      <c r="B47" t="s">
-        <v>35</v>
-      </c>
+      <c r="C47" s="11"/>
       <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48">
-        <v>4</v>
-      </c>
-      <c r="B48" t="s">
-        <v>37</v>
-      </c>
+      <c r="C48" s="11"/>
       <c r="D48" s="5"/>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49">
-        <v>5</v>
-      </c>
-      <c r="B49" t="s">
-        <v>38</v>
-      </c>
+    <row r="49" spans="3:4">
+      <c r="C49" s="11"/>
       <c r="D49" s="5"/>
     </row>
   </sheetData>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
   <si>
     <t>UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +219,10 @@
   </si>
   <si>
     <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -265,9 +269,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -610,7 +617,7 @@
   <dimension ref="A2:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -622,20 +629,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="5" t="s">
         <v>40</v>
       </c>
@@ -760,11 +767,11 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:5">
@@ -804,11 +811,11 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:5">
@@ -837,13 +844,13 @@
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
@@ -864,7 +871,9 @@
       <c r="B23" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:5">
@@ -874,6 +883,9 @@
       <c r="B24" t="s">
         <v>17</v>
       </c>
+      <c r="C24" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:5">
@@ -895,7 +907,9 @@
       <c r="B26" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:5">
@@ -905,6 +919,9 @@
       <c r="B27" t="s">
         <v>18</v>
       </c>
+      <c r="C27" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:5">
@@ -923,6 +940,9 @@
       <c r="B29" t="s">
         <v>20</v>
       </c>
+      <c r="C29" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:5">
@@ -941,6 +961,9 @@
       <c r="B31" t="s">
         <v>22</v>
       </c>
+      <c r="C31" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:5">
@@ -965,13 +988,13 @@
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
@@ -1047,13 +1070,13 @@
       <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +219,10 @@
   </si>
   <si>
     <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -269,9 +273,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -617,7 +624,7 @@
   <dimension ref="A2:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -629,20 +636,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="5" t="s">
         <v>40</v>
       </c>
@@ -767,11 +774,11 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:5">
@@ -811,11 +818,11 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:5">
@@ -844,13 +851,13 @@
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
@@ -931,6 +938,9 @@
       <c r="B28" t="s">
         <v>19</v>
       </c>
+      <c r="C28" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:5">
@@ -988,13 +998,13 @@
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
@@ -1070,13 +1080,13 @@
       <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +219,10 @@
   </si>
   <si>
     <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -273,9 +277,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -624,7 +631,7 @@
   <dimension ref="A2:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -636,20 +643,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="5" t="s">
         <v>40</v>
       </c>
@@ -774,11 +781,11 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:5">
@@ -818,11 +825,11 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:5">
@@ -851,13 +858,13 @@
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
@@ -962,6 +969,9 @@
       <c r="B30" t="s">
         <v>21</v>
       </c>
+      <c r="C30" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:5">
@@ -998,13 +1008,13 @@
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
@@ -1080,13 +1090,13 @@
       <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
